--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2119035.626650452</v>
+        <v>2109837.510064739</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6933941.905492765</v>
+        <v>7709817.850552401</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9916866.873169169</v>
+        <v>9858651.533082936</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>139.1267018951519</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>87.83408063398342</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>162.8751464280496</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>127.0044127072328</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>327.3066807133027</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>198.228039522401</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>198.9003950922399</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.9999428884425</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.1742023667268</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>65.2737241165995</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>23.31925211679434</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>36.32919588908029</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292546</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788177</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>47.28874591533977</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143268</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>23.1071845078541</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9956472453795</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>126.095523708391</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396203</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>22.85046759233478</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>139.2380940220263</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>50.71503874612314</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>120.6353666620243</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,13 +2296,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>113.8530890496879</v>
+        <v>10.74344707148628</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>26.99989140651299</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -2761,25 +2761,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>130.1102996168599</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>141.4201311755209</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>223.5632862366943</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>244.1831094673594</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3475,19 +3475,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>78.44407739678182</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0324187618342</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,7 +3557,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589034</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492404</v>
+        <v>98.21052195311796</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>148.5873298926975</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.2334741230747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292667</v>
+        <v>41.57692977292724</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4150,7 +4150,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.451579104186333</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>151.3653182126945</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1349.514859931282</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="C2" t="n">
-        <v>1349.514859931282</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="D2" t="n">
-        <v>991.2491613245313</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="E2" t="n">
-        <v>605.460908726287</v>
+        <v>894.7683042050585</v>
       </c>
       <c r="F2" t="n">
-        <v>194.4750039366795</v>
+        <v>483.7823994154509</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>469.8589953540418</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>142.6642753900447</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.654191907093</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1349.514859931282</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,28 +4410,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>386.0450565669175</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832259</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>182.2302673832259</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1348.719328075852</v>
+        <v>1836.405407910399</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1467.442890969987</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1109.177192363237</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1109.177192363237</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>75.17723181374772</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>897.2530574599469</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1524.560725519794</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2071.721930286871</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2501.036976626165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2209.871166171479</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>2209.871166171479</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.858660051663</v>
+        <v>1836.405407910399</v>
       </c>
       <c r="Y5" t="n">
-        <v>1348.719328075852</v>
+        <v>1836.405407910399</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1067.230262346898</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1734.774662373908</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>356.1107185029924</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>356.1107185029924</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>356.1107185029924</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205993</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205993</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205993</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159742</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>645.527888539953</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>645.527888539953</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>356.1107185029924</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>356.1107185029924</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>356.1107185029924</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2074.68352373958</v>
+        <v>1910.665593853412</v>
       </c>
       <c r="C8" t="n">
-        <v>1705.721006799168</v>
+        <v>1541.703076913</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>1183.437378306249</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>1183.437378306249</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>772.451473516642</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>199.5143021373485</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>468.4264940665499</v>
       </c>
       <c r="L8" t="n">
-        <v>297.0690422295933</v>
+        <v>838.937608855259</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771031</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1738.603625623767</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2155.602766936375</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.737980492455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.737980492455</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.737980492455</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2366.737980492455</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>2300.804925829223</v>
       </c>
       <c r="Y8" t="n">
-        <v>2344.380435748108</v>
+        <v>1910.665593853412</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990733</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>121.8264159807865</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>316.0048420001849</v>
       </c>
       <c r="L9" t="n">
-        <v>744.5715932067358</v>
+        <v>983.5492420271946</v>
       </c>
       <c r="M9" t="n">
-        <v>1385.11694267384</v>
+        <v>1361.650047680996</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1764.166701502139</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2110.171006538452</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2368.536899365187</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>244.8937823843168</v>
+        <v>478.8530223516093</v>
       </c>
       <c r="C10" t="n">
-        <v>244.8937823843168</v>
+        <v>478.8530223516093</v>
       </c>
       <c r="D10" t="n">
-        <v>244.8937823843168</v>
+        <v>328.7363829392735</v>
       </c>
       <c r="E10" t="n">
-        <v>244.8937823843168</v>
+        <v>305.1815828212995</v>
       </c>
       <c r="F10" t="n">
-        <v>244.8937823843168</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="G10" t="n">
-        <v>244.8937823843168</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="H10" t="n">
-        <v>90.63913928408192</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.88339090485934</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866544</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877601</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282806</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534688</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="U10" t="n">
-        <v>715.9594172515172</v>
+        <v>1398.700787260357</v>
       </c>
       <c r="V10" t="n">
-        <v>715.9594172515172</v>
+        <v>1398.700787260357</v>
       </c>
       <c r="W10" t="n">
-        <v>426.5422472145565</v>
+        <v>1109.283617223397</v>
       </c>
       <c r="X10" t="n">
-        <v>426.5422472145565</v>
+        <v>881.2940663253792</v>
       </c>
       <c r="Y10" t="n">
-        <v>426.5422472145565</v>
+        <v>660.501487181849</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5121,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>460.1767209741892</v>
+        <v>704.2840989361273</v>
       </c>
       <c r="C13" t="n">
-        <v>291.2405380462823</v>
+        <v>704.2840989361273</v>
       </c>
       <c r="D13" t="n">
-        <v>291.2405380462823</v>
+        <v>704.2840989361273</v>
       </c>
       <c r="E13" t="n">
-        <v>143.3274444638892</v>
+        <v>556.3710053537342</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558238</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305428</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5230,19 +5230,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.376021052697</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>908.9588510157366</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X13" t="n">
-        <v>680.9693001177193</v>
+        <v>885.932563766367</v>
       </c>
       <c r="Y13" t="n">
-        <v>460.1767209741892</v>
+        <v>885.932563766367</v>
       </c>
     </row>
     <row r="14">
@@ -5258,40 +5258,40 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5303,10 +5303,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5358,7 +5358,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320243</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>391.866433243363</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C16" t="n">
-        <v>222.930250315456</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D16" t="n">
-        <v>222.930250315456</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E16" t="n">
-        <v>222.930250315456</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>222.930250315456</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>222.930250315456</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5461,25 +5461,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>1577.095838825271</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>1349.106287927254</v>
       </c>
       <c r="Y16" t="n">
-        <v>391.866433243363</v>
+        <v>1128.313708783724</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>728.5987256350447</v>
+        <v>945.6912076665325</v>
       </c>
       <c r="C19" t="n">
-        <v>559.6625427071378</v>
+        <v>776.7550247386256</v>
       </c>
       <c r="D19" t="n">
-        <v>536.5812623108401</v>
+        <v>626.6383853262898</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953224</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498441988</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482926949</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892244</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598109</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518522</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952181</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862224</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862224</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1644.74639343175</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814702</v>
+        <v>1644.74639343175</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.039769608815</v>
+        <v>1644.74639343175</v>
       </c>
       <c r="W19" t="n">
-        <v>1131.039769608815</v>
+        <v>1355.32922339479</v>
       </c>
       <c r="X19" t="n">
-        <v>1131.039769608815</v>
+        <v>1127.339672496772</v>
       </c>
       <c r="Y19" t="n">
-        <v>910.2471904652845</v>
+        <v>1127.339672496772</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>2298.517587917026</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320238</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.42625032451</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>217.4149401676109</v>
+        <v>3677.3423409661</v>
       </c>
       <c r="C22" t="n">
-        <v>217.4149401676109</v>
+        <v>3508.406158038193</v>
       </c>
       <c r="D22" t="n">
-        <v>217.4149401676109</v>
+        <v>3358.289518625857</v>
       </c>
       <c r="E22" t="n">
-        <v>217.4149401676109</v>
+        <v>3210.376425043464</v>
       </c>
       <c r="F22" t="n">
-        <v>217.4149401676109</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689059</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258585</v>
+        <v>4466.454649746775</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>4177.351782872418</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783413</v>
+        <v>4177.351782872418</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413808</v>
+        <v>4177.351782872418</v>
       </c>
       <c r="X22" t="n">
-        <v>619.8559841413808</v>
+        <v>3949.362231974401</v>
       </c>
       <c r="Y22" t="n">
-        <v>399.0634049978506</v>
+        <v>3728.569652830871</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -5993,46 +5993,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>623.0432015923082</v>
+        <v>981.3979257845577</v>
       </c>
       <c r="C25" t="n">
-        <v>454.1070186644013</v>
+        <v>812.4617428566509</v>
       </c>
       <c r="D25" t="n">
-        <v>339.1038984121913</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121913</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.890966501056</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W25" t="n">
-        <v>1253.473796464095</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="X25" t="n">
-        <v>1025.484245566078</v>
+        <v>1383.838969758327</v>
       </c>
       <c r="Y25" t="n">
-        <v>804.6916664225479</v>
+        <v>1163.046390614797</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3160.812154727208</v>
+        <v>3502.677556432735</v>
       </c>
       <c r="C28" t="n">
-        <v>3160.812154727208</v>
+        <v>3502.677556432735</v>
       </c>
       <c r="D28" t="n">
-        <v>3160.812154727208</v>
+        <v>3502.677556432735</v>
       </c>
       <c r="E28" t="n">
-        <v>3160.812154727208</v>
+        <v>3475.404938850399</v>
       </c>
       <c r="F28" t="n">
-        <v>3160.812154727208</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G28" t="n">
         <v>3160.812154727208</v>
@@ -6409,25 +6409,25 @@
         <v>4688.221265177248</v>
       </c>
       <c r="S28" t="n">
-        <v>4556.796720109713</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T28" t="n">
-        <v>4335.030104679238</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U28" t="n">
-        <v>4045.927237804882</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="V28" t="n">
-        <v>3791.242749598995</v>
+        <v>4020.084277367713</v>
       </c>
       <c r="W28" t="n">
-        <v>3791.242749598995</v>
+        <v>3730.667107330753</v>
       </c>
       <c r="X28" t="n">
-        <v>3563.253198700977</v>
+        <v>3502.677556432735</v>
       </c>
       <c r="Y28" t="n">
-        <v>3342.460619557447</v>
+        <v>3502.677556432735</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2497.450077968865</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N29" t="n">
-        <v>3044.228895027647</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906984</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6652,19 +6652,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1591.728233325219</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1591.728233325219</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1302.311063288258</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X31" t="n">
-        <v>1302.311063288258</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6704,19 +6704,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1605.620901857739</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2584.171204687567</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.95002174635</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075804</v>
+        <v>3950.852187039507</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4345.626553396685</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188665</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>3773.434671845128</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>3773.434671845128</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>3623.318032432792</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>3475.404938850399</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>4028.119160051015</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>3773.434671845128</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>3773.434671845128</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>3773.434671845128</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>3773.434671845128</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,64 +6923,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216427</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M35" t="n">
-        <v>2504.619866888352</v>
+        <v>2209.609207880053</v>
       </c>
       <c r="N35" t="n">
-        <v>3051.398683947134</v>
+        <v>3189.3614801067</v>
       </c>
       <c r="O35" t="n">
-        <v>3554.371154826471</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P35" t="n">
-        <v>4267.726242273417</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7047,7 +7047,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8133219477185</v>
+        <v>675.7429179653792</v>
       </c>
       <c r="C37" t="n">
-        <v>803.8133219477185</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D37" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F37" t="n">
         <v>506.8067350374723</v>
@@ -7087,10 +7087,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7123,22 +7123,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1595.590682874127</v>
       </c>
       <c r="U37" t="n">
-        <v>1279.290389297136</v>
+        <v>1595.590682874127</v>
       </c>
       <c r="V37" t="n">
-        <v>1024.605901091249</v>
+        <v>1595.590682874127</v>
       </c>
       <c r="W37" t="n">
-        <v>1024.605901091249</v>
+        <v>1306.173512837166</v>
       </c>
       <c r="X37" t="n">
-        <v>1024.605901091249</v>
+        <v>1078.183961939149</v>
       </c>
       <c r="Y37" t="n">
-        <v>803.8133219477185</v>
+        <v>857.3913827956189</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M38" t="n">
-        <v>1770.231306037953</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>3211.399571127948</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>3211.399571127948</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>3211.399571127948</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>3063.486477545555</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>3063.486477545555</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>3063.486477545555</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210349</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159225</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607721</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.09595020727</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913135</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833548</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267207</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>4586.365838246548</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>4364.599222816074</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>4075.496355941717</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>3820.811867735831</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>3531.39469769887</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>3531.39469769887</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998329</v>
+        <v>3310.60211855534</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7406,55 +7406,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O41" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P41" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.662598458018</v>
+        <v>3213.574689558381</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>3213.574689558381</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>3213.574689558381</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>3213.574689558381</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>3213.574689558381</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>3063.486477545555</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210349</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159225</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607721</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.09595020727</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913135</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833548</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267207</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.22126517725</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>4496.535381004076</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>4274.768765573602</v>
       </c>
       <c r="U43" t="n">
-        <v>1734.57685067423</v>
+        <v>3985.665898699245</v>
       </c>
       <c r="V43" t="n">
-        <v>1734.57685067423</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W43" t="n">
-        <v>1734.57685067423</v>
+        <v>3441.564240456398</v>
       </c>
       <c r="X43" t="n">
-        <v>1506.587299776212</v>
+        <v>3213.574689558381</v>
       </c>
       <c r="Y43" t="n">
-        <v>1302.311063288258</v>
+        <v>3213.574689558381</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2374.216356690177</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551629</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.557933208927</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N44" t="n">
-        <v>2883.993034926781</v>
+        <v>3515.905934867957</v>
       </c>
       <c r="O44" t="n">
-        <v>3763.957685256236</v>
+        <v>4018.878405747294</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4413.652772104471</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y44" t="n">
         <v>2760.816196754299</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.54203436749</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086363</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419656</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446541</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279159</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917026</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318564</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809181</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789529</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102194</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.42625032451</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297019</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773122</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012238</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505718</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183573</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317989</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086246</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358044</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.517670152512</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387558</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.662598458018</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C46" t="n">
-        <v>951.7264155301116</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177758</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H46" t="n">
         <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7828,28 +7828,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.867123575223</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U46" t="n">
-        <v>1664.764256700866</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V46" t="n">
-        <v>1410.079768494979</v>
+        <v>1491.852132610854</v>
       </c>
       <c r="W46" t="n">
-        <v>1120.662598458018</v>
+        <v>1202.434962573894</v>
       </c>
       <c r="X46" t="n">
-        <v>1120.662598458018</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="Y46" t="n">
-        <v>1120.662598458018</v>
+        <v>974.4454116758762</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>162.7555498691528</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>473.6238973478233</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>88.2018582600214</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8459,22 +8459,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>368.1017737596992</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>363.7626282652911</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>56.94306717106267</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.36188534987753</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393211</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>229.1543674071818</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>148.4180109385408</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476831</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>314.5564971416978</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>226.7688596193103</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>410.4190035206659</v>
+        <v>48.65289230147084</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10352,13 +10352,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>48.50256772349229</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>60.66917680434076</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,16 +10586,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>26.15484791631786</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>139.3563597571384</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,25 +10823,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>288.0478149561031</v>
+        <v>11.6415344357888</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>96.13798426930816</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.2173930448432</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>57.67224444723868</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>98.13230210759147</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>202.6024708811831</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>26.83633293655777</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.421048022935</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>18.65949120592978</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>125.7650054258776</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>7.195868624542868</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>129.1169414358142</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>45.3904415970039</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.76238396852445</v>
+        <v>137.8720259467261</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4340712400562</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>59.65872571458198</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>144.791707030092</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>2.146369152342828</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25126,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>42.02872873825348</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25363,19 +25363,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>141.1048718793874</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1794194437787</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270133</v>
+        <v>81.62145822881934</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>17.43847836633068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983374</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.35117922902006</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>217.0973701719829</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>100.7723251111335</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>912431.0903933051</v>
+        <v>890040.1845807829</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>890040.1845807829</v>
+        <v>850361.0147885345</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415312</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841786.5885415312</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415312</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415315</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841786.5885415314</v>
+        <v>841786.5885415312</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861254</v>
       </c>
       <c r="F2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="G2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861253</v>
       </c>
       <c r="H2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="I2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="J2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="K2" t="n">
         <v>575768.590986126</v>
-      </c>
-      <c r="I2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="J2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="K2" t="n">
-        <v>575768.5909861258</v>
       </c>
       <c r="L2" t="n">
         <v>575768.5909861259</v>
       </c>
       <c r="M2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="N2" t="n">
+        <v>575768.5909861255</v>
+      </c>
+      <c r="O2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="P2" t="n">
         <v>575768.5909861256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>575768.590986126</v>
-      </c>
-      <c r="O2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="P2" t="n">
-        <v>575768.5909861255</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>315238.2384513054</v>
       </c>
       <c r="E3" t="n">
-        <v>554057.3276165043</v>
+        <v>258331.9582431708</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630334</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>27740.54210219664</v>
+        <v>28561.83935289561</v>
       </c>
       <c r="F4" t="n">
-        <v>27740.54210219663</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219664</v>
+        <v>28561.83935289563</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="P4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289577</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.04517084677</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879409</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26494,22 +26494,22 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-285398.228366837</v>
+        <v>-287494.0895893824</v>
       </c>
       <c r="C6" t="n">
-        <v>304569.6508477074</v>
+        <v>134979.8742828444</v>
       </c>
       <c r="D6" t="n">
-        <v>148103.6084914644</v>
+        <v>62813.45519978937</v>
       </c>
       <c r="E6" t="n">
-        <v>-102412.796986289</v>
+        <v>192491.2751363454</v>
       </c>
       <c r="F6" t="n">
-        <v>451644.5306302153</v>
+        <v>450823.2333795163</v>
       </c>
       <c r="G6" t="n">
-        <v>451644.5306302157</v>
+        <v>450823.233379516</v>
       </c>
       <c r="H6" t="n">
-        <v>451644.5306302156</v>
+        <v>450823.2333795163</v>
       </c>
       <c r="I6" t="n">
-        <v>451644.5306302155</v>
+        <v>450823.2333795163</v>
       </c>
       <c r="J6" t="n">
-        <v>275221.3114376226</v>
+        <v>274400.0141869233</v>
       </c>
       <c r="K6" t="n">
-        <v>451644.5306302154</v>
+        <v>450823.2333795166</v>
       </c>
       <c r="L6" t="n">
-        <v>451644.5306302155</v>
+        <v>450823.2333795165</v>
       </c>
       <c r="M6" t="n">
-        <v>322002.2157912705</v>
+        <v>321180.9185405716</v>
       </c>
       <c r="N6" t="n">
-        <v>451644.5306302156</v>
+        <v>450823.2333795161</v>
       </c>
       <c r="O6" t="n">
-        <v>451644.5306302155</v>
+        <v>450823.2333795166</v>
       </c>
       <c r="P6" t="n">
-        <v>451644.5306302152</v>
+        <v>450823.2333795162</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.567045198034</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>368.0909448599689</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.2096553952643</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>274.6574681256432</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>64.09723561087783</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>4.371674670578216</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>159.5185856293582</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>37.96621105770487</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>208.6480062193104</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>87.36025956585709</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>115.7338987750381</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.44749355031661</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>304.4573765618695</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>123.1147105297748</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>86.93736199033668</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.32764374521089</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600134</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998738</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200893</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206096</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411434</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717136</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105699</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047163</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.309465272805</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333016</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959967</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861146</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246313</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.92164719740459</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280106</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897658</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590633</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796762</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363775</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691385</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329284</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905493</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609222</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342642</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173923</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700318</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.41732487182708</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827407</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.4165995115357</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.14530795926388</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656575</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660798</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781745</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.808205907372</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921068</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662137</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182727</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249031</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195859</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991197</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279931</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.09458036510144606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -32075,13 +32075,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>198.093044840461</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>249.3254064102847</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>147.0417376939233</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>271.6284766961628</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>374.2536513017264</v>
       </c>
       <c r="M8" t="n">
-        <v>556.6870392399089</v>
+        <v>448.4186287832972</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>460.3349235081254</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511183</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>324.6445642780321</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>195.1352076215472</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198247</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>68.56912541456776</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>196.1398242620185</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>381.9200057109101</v>
       </c>
       <c r="N9" t="n">
-        <v>257.6064425777947</v>
+        <v>406.582478607216</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.4992980164777</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.975649319934</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>194.3937648812483</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898475</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384906</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692126</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713354</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802534</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831662</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.03458057320874</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>627.9163536265537</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35653,16 +35653,16 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>700.7198463514522</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35896,16 +35896,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661305859</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>836.7500320793075</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359025</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>822.6094980299169</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>682.3589740116424</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>949.3401193508927</v>
+        <v>587.5740081316976</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37072,13 +37072,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>504.0926821158245</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37087,7 +37087,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>311.4634816080602</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37306,16 +37306,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>565.0759637465446</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37324,7 +37324,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>390.1506645608579</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>840.3496503690146</v>
+        <v>563.9433698487003</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,13 +37792,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>604.1909851575273</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>427.0116978485627</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>308.4665492509582</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2221008.473005264</v>
+        <v>2216702.756629193</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>308.1699826279565</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>198.9923348665002</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>54.70191565295227</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>177.9124355215167</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>365.6717988180667</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>69.40409848149919</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>34.05110737787415</v>
       </c>
       <c r="H7" t="n">
-        <v>17.45409840511795</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>112.022370461648</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>150.6160965830213</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>207.5670994901457</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>129.2224443473097</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>99.70681342860001</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>157.0680868942518</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756242</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>216.8180354051597</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>190.7368854541456</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.99837838564402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.93966244919737</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>90.14863908058081</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>198.3280370363244</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>249.396984683987</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.04917322725558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.175505447095</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C2" t="n">
-        <v>1194.175505447095</v>
+        <v>1114.740639657645</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>756.4749410508948</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511217</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.8539665087374</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="V4" t="n">
-        <v>154.8539665087374</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="W4" t="n">
-        <v>154.8539665087374</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X4" t="n">
-        <v>154.8539665087374</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.8539665087374</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.48636361053</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.523846670118</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="D5" t="n">
-        <v>1252.258148063368</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>130.9936325508802</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>124.0481318016768</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>2366.086203674652</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D7" t="n">
-        <v>400.4487670819043</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="E7" t="n">
-        <v>400.4487670819043</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="F7" t="n">
-        <v>253.5588195839939</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="G7" t="n">
-        <v>253.5588195839939</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1332.14429898492</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="C8" t="n">
-        <v>963.1817820445087</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="D8" t="n">
-        <v>604.9160834377583</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="E8" t="n">
-        <v>219.127830839514</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>661.4897982516954</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771031</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2482.349229285934</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2482.349229285934</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>2108.883471024854</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="Y8" t="n">
-        <v>1718.744139049042</v>
+        <v>625.0058556773363</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>972.6029207988471</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>196.3292442054008</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>196.3292442054008</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>196.3292442054008</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>713.7359651403788</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>713.7359651403788</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>424.3187951034181</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>196.3292442054008</v>
+        <v>923.3499417167701</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.3292442054008</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>264.0500279773688</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5503,40 +5503,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5603,13 +5603,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2105.453616008648</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1816.378389352846</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1561.693901146959</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1272.276731109998</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5992,10 +5992,10 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096656</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098242</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819173</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695815</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3896878871884</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>369.499740389278</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>202.303641104158</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640064</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6314,13 +6314,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6551,13 +6551,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.6680198981028</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C31" t="n">
-        <v>467.7318369701959</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578601</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y31" t="n">
-        <v>818.3164847283425</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6782,13 +6782,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3028.451182298828</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2859.514999370921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2709.398359958586</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4673.722382247889</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4490.867547902793</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4271.266082925735</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3982.190856269933</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3727.506368064046</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3438.089198027085</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3210.099647129068</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3210.099647129068</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.8178837532263</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2063.776898693423</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1774.701672037621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V37" t="n">
-        <v>1520.017183831734</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W37" t="n">
-        <v>1230.600013794774</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X37" t="n">
-        <v>1002.610462896756</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.8178837532263</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7262,16 +7262,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2795.224693449924</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2626.288510522017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2626.288510522017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2626.288510522017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2479.398563024106</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3425.655288321711</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3197.665737423693</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>2976.873158280163</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>705.9324428257312</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>43.95636118853434</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>155.3993418641195</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.077743684667804e-12</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-1.19143052238942e-12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.2204003741864</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>67.54000767002782</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4141550350971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>60.33736343303642</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>32.89260457059963</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>69.70496293143128</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>34.97276993489152</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>49.43558426092429</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>75.37549921168804</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>19.07741329096388</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>37.126013652604</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516059</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26426,40 +26426,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682724</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287494.0895893828</v>
+        <v>-287494.0895893823</v>
       </c>
       <c r="C6" t="n">
-        <v>302473.7896251619</v>
+        <v>302473.7896251621</v>
       </c>
       <c r="D6" t="n">
-        <v>146669.9835313681</v>
+        <v>146669.9835313677</v>
       </c>
       <c r="E6" t="n">
-        <v>-292671.4729961416</v>
+        <v>-293018.8522504989</v>
       </c>
       <c r="F6" t="n">
-        <v>478381.2183846647</v>
+        <v>478033.8391303077</v>
       </c>
       <c r="G6" t="n">
-        <v>478381.2183846647</v>
+        <v>478033.8391303078</v>
       </c>
       <c r="H6" t="n">
-        <v>478381.2183846644</v>
+        <v>478033.8391303078</v>
       </c>
       <c r="I6" t="n">
-        <v>478381.2183846644</v>
+        <v>478033.8391303075</v>
       </c>
       <c r="J6" t="n">
-        <v>301957.9991920718</v>
+        <v>301610.6199377145</v>
       </c>
       <c r="K6" t="n">
-        <v>478381.2183846647</v>
+        <v>478033.8391303077</v>
       </c>
       <c r="L6" t="n">
-        <v>478381.2183846644</v>
+        <v>478033.8391303077</v>
       </c>
       <c r="M6" t="n">
-        <v>354172.7076766062</v>
+        <v>353825.3284222491</v>
       </c>
       <c r="N6" t="n">
-        <v>478381.2183846644</v>
+        <v>478033.8391303076</v>
       </c>
       <c r="O6" t="n">
-        <v>478381.2183846648</v>
+        <v>478033.8391303075</v>
       </c>
       <c r="P6" t="n">
-        <v>478381.2183846646</v>
+        <v>478033.8391303076</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>46.51305899272649</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>182.9380352057616</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>112.5449054456756</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>34.2331034285022</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>16.25857125419503</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>344.3800715392958</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>133.2586948811768</v>
       </c>
       <c r="H7" t="n">
-        <v>138.7167904366772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>270.7114712018326</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>256.2599491586901</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>78.6935551679513</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.48721104172748</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>539.5330155967683</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>574.6535388222619</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M42" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>184.6923771898002</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35257,13 +35257,13 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>336.7097826263466</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>405.558608182438</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>432.0572943778175</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36360,13 +36360,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
-        <v>432.0572943778172</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
@@ -36682,16 +36682,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>432.0572943778172</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M42" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2216702.756629193</v>
+        <v>2218463.286931979</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9833725.565585535</v>
+        <v>9833725.565585533</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>96.95377689311783</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>198.9923348665002</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>113.4450031752937</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -864,10 +864,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>177.9124355215167</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>69.40409848149919</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>110.5776872640353</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.05110737787415</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.60408762095446</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.022370461648</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>35.36772610325063</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>6.980384243200301</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>129.2224443473097</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>109.8058856274582</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>99.70681342860001</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>46.15319674220954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>157.0680868942518</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>216.8180354051597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>190.7368854541456</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>104.7777418077832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>90.14863908058081</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>176.2934305920514</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1483.703156598057</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1114.740639657645</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>756.4749410508948</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4372,10 +4372,10 @@
         <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.8558756644252</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="C4" t="n">
-        <v>370.8558756644252</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>370.8558756644252</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>370.8558756644252</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>370.8558756644252</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V4" t="n">
-        <v>370.8558756644252</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W4" t="n">
-        <v>370.8558756644252</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X4" t="n">
-        <v>370.8558756644252</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.8558756644252</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885.7444020895362</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C5" t="n">
-        <v>516.7818851491245</v>
+        <v>1257.755191400005</v>
       </c>
       <c r="D5" t="n">
-        <v>516.7818851491245</v>
+        <v>899.4894927932542</v>
       </c>
       <c r="E5" t="n">
-        <v>130.9936325508802</v>
+        <v>513.7012401950099</v>
       </c>
       <c r="F5" t="n">
-        <v>124.0481318016768</v>
+        <v>506.7557394458064</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>492.8323353843973</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>165.6376154204002</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.344242153658</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="C7" t="n">
-        <v>224.6669506791649</v>
+        <v>529.7758821321496</v>
       </c>
       <c r="D7" t="n">
-        <v>224.6669506791649</v>
+        <v>379.6592427198138</v>
       </c>
       <c r="E7" t="n">
-        <v>224.6669506791649</v>
+        <v>231.7461491374207</v>
       </c>
       <c r="F7" t="n">
-        <v>224.6669506791649</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>511.8519461201161</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C8" t="n">
-        <v>511.8519461201161</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>511.8519461201161</v>
+        <v>863.7645169313848</v>
       </c>
       <c r="E8" t="n">
-        <v>511.8519461201161</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>66.99035954353295</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
@@ -4810,46 +4810,46 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1599.743387334736</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1388.610945914228</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1015.145187653148</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>625.0058556773363</v>
+        <v>1977.592572542669</v>
       </c>
     </row>
     <row r="9">
@@ -4871,16 +4871,16 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>172.6022336772601</v>
@@ -4892,7 +4892,7 @@
         <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4998,16 +4998,16 @@
         <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>509.7760050368617</v>
       </c>
       <c r="X10" t="n">
-        <v>923.3499417167701</v>
+        <v>281.7864541388444</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>60.99387499531426</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.2213777565</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,13 +5603,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.8461362382112</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C19" t="n">
-        <v>472.9099533103043</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D19" t="n">
-        <v>322.7933138979686</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>282.1478848544703</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>140.4360536966684</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2105.453616008648</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1816.378389352846</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1561.693901146959</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1272.276731109998</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X19" t="n">
-        <v>1044.287180211981</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.4946010684509</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5843,13 +5843,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,13 +6071,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
         <v>2001.151557821488</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.2213777565</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="29">
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6554,13 +6554,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.613315601761</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C31" t="n">
-        <v>888.6771326738537</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>738.560493261518</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>590.6473996791249</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,10 +6952,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>853.5941094450255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326898</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>555.5643764502967</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>408.6744289523863</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,7 +7186,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,19 +7256,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7496,7 +7496,7 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
         <v>1373.553594266881</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.988373172364</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7739,10 +7739,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,10 +8458,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>216.3441640494772</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>71.2204003741864</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>67.54000767002782</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>35.112639576356</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>60.33736343303642</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>69.70496293143128</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>34.97276993489152</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>40.64330621514807</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>75.37549921168804</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>41.11201973523686</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752547</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752547</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
@@ -26352,7 +26352,7 @@
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481115</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682726</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682744</v>
@@ -26438,28 +26438,28 @@
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682724</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287494.0895893823</v>
+        <v>-287494.0895893825</v>
       </c>
       <c r="C6" t="n">
-        <v>302473.7896251621</v>
+        <v>302473.7896251623</v>
       </c>
       <c r="D6" t="n">
-        <v>146669.9835313677</v>
+        <v>146669.9835313678</v>
       </c>
       <c r="E6" t="n">
-        <v>-293018.8522504989</v>
+        <v>-292706.2109215774</v>
       </c>
       <c r="F6" t="n">
-        <v>478033.8391303077</v>
+        <v>478346.4804592291</v>
       </c>
       <c r="G6" t="n">
-        <v>478033.8391303078</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="H6" t="n">
-        <v>478033.8391303078</v>
+        <v>478346.4804592291</v>
       </c>
       <c r="I6" t="n">
-        <v>478033.8391303075</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="J6" t="n">
-        <v>301610.6199377145</v>
+        <v>301923.261266636</v>
       </c>
       <c r="K6" t="n">
-        <v>478033.8391303077</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="L6" t="n">
-        <v>478033.8391303077</v>
+        <v>478346.480459229</v>
       </c>
       <c r="M6" t="n">
-        <v>353825.3284222491</v>
+        <v>354137.9697511704</v>
       </c>
       <c r="N6" t="n">
-        <v>478033.8391303076</v>
+        <v>478346.4804592287</v>
       </c>
       <c r="O6" t="n">
-        <v>478033.8391303075</v>
+        <v>478346.4804592286</v>
       </c>
       <c r="P6" t="n">
-        <v>478033.8391303076</v>
+        <v>478346.480459229</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209783</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>285.7800647703627</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>182.9380352057616</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>32.98895947127548</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>34.2331034285022</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>344.3800715392958</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>41.35362898082589</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.2586948811768</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>14.59587156758252</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>270.7114712018326</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>350.870212552803</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>172.851595938737</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28070,13 +28070,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>96.48721104172748</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33739,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>437.8531046913764</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,10 +35178,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>404.929429529687</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35190,7 +35190,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770462</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
